--- a/nbc/Citations.xlsx
+++ b/nbc/Citations.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6348" tabRatio="924" activeTab="7"/>
@@ -14,7 +14,8 @@
     <sheet name="Form 2-B1a" sheetId="36" r:id="rId5"/>
     <sheet name="Form 2-B1b" sheetId="40" r:id="rId6"/>
     <sheet name="Form 2-B1c" sheetId="44" r:id="rId7"/>
-    <sheet name="List of Authors_Citation" sheetId="42" r:id="rId8"/>
+    <sheet name="List of Authors (INTER)" sheetId="42" r:id="rId8"/>
+    <sheet name="List of Authors (LOCAL)" sheetId="46" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Checklist of Evidence'!$A$1:$E$70</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="188">
   <si>
     <t>Prepared by:</t>
   </si>
@@ -402,12 +403,6 @@
     <t>Date Published</t>
   </si>
   <si>
-    <t>Name and Signature</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>CHECKLIST OF DOCUMENTS</t>
   </si>
   <si>
@@ -429,9 +424,6 @@
     <t>Time-Series Forecasting of COVID-19 Cases Using Stacked Long Short-Term Memory Networks</t>
   </si>
   <si>
-    <t>November 4, 2021</t>
-  </si>
-  <si>
     <t>Journal of King Saud University - Computer and Information Science</t>
   </si>
   <si>
@@ -439,9 +431,6 @@
   </si>
   <si>
     <t>IEEE Xplore</t>
-  </si>
-  <si>
-    <t>December 6, 2021</t>
   </si>
   <si>
     <t>Machine Learning and Prediction of Infectious Diseases: A Systematic Review</t>
@@ -477,9 +466,6 @@
     <t>June 1, 2022</t>
   </si>
   <si>
-    <t>LIST OF CITATIONS (ALL VERIFIED SCOPUS-INDEXED)</t>
-  </si>
-  <si>
     <t>COVID-19 Spatio-Temporal Evolution Using Deep Learning at European Level</t>
   </si>
   <si>
@@ -490,9 +476,6 @@
   </si>
   <si>
     <t>A Deep Learning Approach for Automatic Scoliosis Cobb Angle Identification</t>
-  </si>
-  <si>
-    <t>December 1, 2022</t>
   </si>
   <si>
     <t>Effectiveness of Integrative Korean Medicine Treatment in Patients with Traffic-Accident-Induced Acute Low Back Pain and Mild Adult Scoliosis</t>
@@ -507,9 +490,6 @@
     <t>Cataract Detection and Grading Using Ensemble Neural Networks and Transfer Learning</t>
   </si>
   <si>
-    <t>November 22, 2022</t>
-  </si>
-  <si>
     <t>Artificial Intelligence in Teleradiology: A Rapid Review of Educational and Professional Contrbutions</t>
   </si>
   <si>
@@ -519,18 +499,128 @@
     <t>March 13, 2023</t>
   </si>
   <si>
-    <t>November 22, 2023</t>
+    <t>A Multistage Transfer Learning Approach for Acute Lymphoblastic Leukemia Classification</t>
   </si>
   <si>
-    <t>A Multistage Transfer Learning Approach for Acute Lymphoblastic Leukemia Classification</t>
+    <t>LIST OF CITATIONS</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL AUTHORS</t>
+  </si>
+  <si>
+    <t>Visual Analysis of Cardiac Arrest Prediction Using Machine Learning Algorithms: A Health Education Awareness Initiative</t>
+  </si>
+  <si>
+    <t>Virtual Dietitian as a Precision Nutrition Application for Gym and Fitness Enthusiasts: A Quality Improvement Iniative</t>
+  </si>
+  <si>
+    <t>The Intersection of Artificial Intelligence, Telemedicine, and Neurophysiology: Opportunities and Challenges</t>
+  </si>
+  <si>
+    <t>A Personalized Virtual Learning Environment Using Multiple Modeling Techniques</t>
+  </si>
+  <si>
+    <t>Personalized Adaptive Learning Technologies Based on Machine Learning Techniques to Identify Learning Styles: A Systematic Literature Review</t>
+  </si>
+  <si>
+    <t>IEEE Access</t>
+  </si>
+  <si>
+    <t>May 15, 2023</t>
+  </si>
+  <si>
+    <t>Emerging Advancement of 3D Bioprinting Technology in Modern Medical Science and Vascular Tissue Engineering Education</t>
+  </si>
+  <si>
+    <t>Sensing Functions of an Iron-Doped Boron Nitride Nanocone Towards Acetaminophen and Its Thio/Thiol Analogs: A DFT Outlook</t>
+  </si>
+  <si>
+    <t>Diamond and Related Materials</t>
+  </si>
+  <si>
+    <t>Assessing a Double Silicon Decorated Fullerene for the Delivery of Interacting Flurbiprofen and Salicylic Acid Drugs: A DFT Approach</t>
+  </si>
+  <si>
+    <t>Journal of the Indian Chemical Society</t>
+  </si>
+  <si>
+    <t>July 1, 2023</t>
+  </si>
+  <si>
+    <t>A dispersion‑corrected DFT calculation on encapsulation of favipiravir
+drug used as antiviral against COVID‑19 into carbon‑, boron‑,
+and aluminum‑nitride nanotubes for optimal drug delivery systems
+combined with molecular docking simulations</t>
+  </si>
+  <si>
+    <t>Structural Chemistry</t>
+  </si>
+  <si>
+    <t>07/13/2022</t>
+  </si>
+  <si>
+    <t>May 11, 2023</t>
+  </si>
+  <si>
+    <t>July 17, 2023</t>
+  </si>
+  <si>
+    <t>A Pattern Mixture Model with Long Short-Term Memory Network for Acute Kidney Injury Prediction</t>
+  </si>
+  <si>
+    <t>LOCAL AUTHORS</t>
+  </si>
+  <si>
+    <t>Early Prediction of Electronics Engineering Licensure Examination Using Random Forest</t>
+  </si>
+  <si>
+    <t>Admission Criteria as Predictors of Licensure Performances among Graduates of a State University in the Philippine Cordillera Administrative Region</t>
+  </si>
+  <si>
+    <t>06/21/2021</t>
+  </si>
+  <si>
+    <t>November 1, 2022</t>
+  </si>
+  <si>
+    <t>Academic Journal of Interdisciplinary Studies</t>
+  </si>
+  <si>
+    <t>Salted Egg Clearning and Grading System Using Machine Vision</t>
+  </si>
+  <si>
+    <t>A Machine Vision-Based Person Detection under Low-Illuminance Conditions Using High Dynamic Range Imagery for Visual Surveillance System</t>
+  </si>
+  <si>
+    <t>April 18, 2023</t>
+  </si>
+  <si>
+    <t>Implementation of Security Access Control Using American Sign Language Recognition via Deep Learning Approach</t>
+  </si>
+  <si>
+    <t>March 20, 2023</t>
+  </si>
+  <si>
+    <t>Deep Neural Network-Based Gender Identification for Surveillance Restroom Restriction System</t>
+  </si>
+  <si>
+    <t>Flood Risk Assessments in Cagayan Valley: A Development of ODeSSE for Pre-Emptive Evacuation Amidst COVID-19 Pandemic</t>
+  </si>
+  <si>
+    <t>AIP</t>
+  </si>
+  <si>
+    <t>December 10, 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-3409]mmmm\ dd\,\ yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="[$-3409]dd\ mmmm\,\ yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1222,7 +1312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1620,13 +1710,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1635,6 +1718,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1646,6 +1732,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1658,26 +1763,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1919,13 +2024,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
       <c r="H1" s="33"/>
@@ -1948,13 +2053,13 @@
       <c r="Y1" s="33"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
@@ -2007,10 +2112,10 @@
       <c r="A4" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
@@ -2036,10 +2141,10 @@
       <c r="A5" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="143"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
@@ -2065,10 +2170,10 @@
       <c r="A6" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
@@ -2094,10 +2199,10 @@
       <c r="A7" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="143"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
@@ -2123,10 +2228,10 @@
       <c r="A8" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="143"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
@@ -2176,13 +2281,13 @@
       <c r="Y9" s="33"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="149" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="150"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
+      <c r="A10" s="147" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="148"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
@@ -2241,10 +2346,10 @@
       <c r="C12" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="151" t="s">
+      <c r="D12" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="152"/>
+      <c r="E12" s="150"/>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
@@ -2507,7 +2612,7 @@
       <c r="Y20" s="33"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="146" t="s">
+      <c r="A21" s="143" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="42" t="s">
@@ -2540,7 +2645,7 @@
       <c r="Y21" s="33"/>
     </row>
     <row r="22" spans="1:25" ht="69" x14ac:dyDescent="0.25">
-      <c r="A22" s="147"/>
+      <c r="A22" s="144"/>
       <c r="B22" s="52" t="s">
         <v>84</v>
       </c>
@@ -3218,7 +3323,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="99"/>
-      <c r="B45" s="148" t="s">
+      <c r="B45" s="145" t="s">
         <v>68</v>
       </c>
       <c r="C45" s="84"/>
@@ -3247,7 +3352,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="99"/>
-      <c r="B46" s="148"/>
+      <c r="B46" s="145"/>
       <c r="C46" s="84"/>
       <c r="D46" s="45"/>
       <c r="E46" s="106"/>
@@ -3274,7 +3379,7 @@
     </row>
     <row r="47" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="99"/>
-      <c r="B47" s="148"/>
+      <c r="B47" s="145"/>
       <c r="C47" s="84"/>
       <c r="D47" s="45"/>
       <c r="E47" s="106"/>
@@ -29809,17 +29914,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -29847,24 +29952,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -29883,21 +29988,21 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C5" s="158" t="s">
+      <c r="C5" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
@@ -29910,17 +30015,17 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
@@ -29929,13 +30034,13 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
@@ -30050,26 +30155,26 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="155"/>
-      <c r="D29" s="155"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
       <c r="F29" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="156" t="s">
+      <c r="C30" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="156"/>
+      <c r="D30" s="161"/>
       <c r="F30" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="157" t="s">
+      <c r="C31" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="157"/>
+      <c r="D31" s="155"/>
       <c r="F31" s="12" t="s">
         <v>7</v>
       </c>
@@ -30081,16 +30186,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -30121,24 +30226,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
@@ -30157,21 +30262,21 @@
       <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C5" s="158" t="s">
+      <c r="C5" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="23"/>
@@ -30184,17 +30289,17 @@
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
@@ -30203,13 +30308,13 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
@@ -30324,26 +30429,26 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="155"/>
-      <c r="D29" s="155"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
       <c r="F29" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="160" t="s">
+      <c r="C30" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="160"/>
+      <c r="D30" s="156"/>
       <c r="F30" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="157" t="s">
+      <c r="C31" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="157"/>
+      <c r="D31" s="155"/>
       <c r="F31" s="22" t="s">
         <v>9</v>
       </c>
@@ -30355,16 +30460,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -30395,24 +30500,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
@@ -30431,21 +30536,21 @@
       <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C5" s="158" t="s">
+      <c r="C5" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="26"/>
@@ -30458,17 +30563,17 @@
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
@@ -30477,13 +30582,13 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
@@ -30598,26 +30703,26 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="155"/>
-      <c r="D29" s="155"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
       <c r="F29" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="160" t="s">
+      <c r="C30" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="160"/>
+      <c r="D30" s="156"/>
       <c r="F30" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="157" t="s">
+      <c r="C31" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="157"/>
+      <c r="D31" s="155"/>
       <c r="F31" s="24" t="s">
         <v>9</v>
       </c>
@@ -30629,16 +30734,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -30669,24 +30774,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
@@ -30705,21 +30810,21 @@
       <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C5" s="158" t="s">
+      <c r="C5" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="26"/>
@@ -30732,17 +30837,17 @@
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="162"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
@@ -30751,13 +30856,13 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
@@ -30872,26 +30977,26 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="155"/>
-      <c r="D29" s="155"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
       <c r="F29" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="160" t="s">
+      <c r="C30" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="160"/>
+      <c r="D30" s="156"/>
       <c r="F30" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="157" t="s">
+      <c r="C31" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="157"/>
+      <c r="D31" s="155"/>
       <c r="F31" s="24" t="s">
         <v>9</v>
       </c>
@@ -30943,24 +31048,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
@@ -30979,21 +31084,21 @@
       <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C5" s="158" t="s">
+      <c r="C5" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="26"/>
@@ -31006,17 +31111,17 @@
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="162"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
@@ -31025,13 +31130,13 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
@@ -31146,26 +31251,26 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="155"/>
-      <c r="D29" s="155"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
       <c r="F29" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="160" t="s">
+      <c r="C30" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="160"/>
+      <c r="D30" s="156"/>
       <c r="F30" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="157" t="s">
+      <c r="C31" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="157"/>
+      <c r="D31" s="155"/>
       <c r="F31" s="24" t="s">
         <v>9</v>
       </c>
@@ -31177,16 +31282,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="D9:F9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -31201,7 +31306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -31217,24 +31322,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
@@ -31253,21 +31358,21 @@
       <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="C5" s="158" t="s">
+      <c r="C5" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="26"/>
@@ -31280,17 +31385,17 @@
       <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="162"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
@@ -31299,13 +31404,13 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
@@ -31420,26 +31525,26 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="155"/>
-      <c r="D29" s="155"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
       <c r="F29" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="160" t="s">
+      <c r="C30" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="160"/>
+      <c r="D30" s="156"/>
       <c r="F30" s="31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="157" t="s">
+      <c r="C31" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="157"/>
+      <c r="D31" s="155"/>
       <c r="F31" s="29" t="s">
         <v>9</v>
       </c>
@@ -31473,10 +31578,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -31485,15 +31590,15 @@
     <col min="2" max="2" width="56.33203125" style="131" customWidth="1"/>
     <col min="3" max="3" width="24.21875" style="131" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" style="131" customWidth="1"/>
-    <col min="5" max="5" width="54.44140625" style="132" customWidth="1"/>
-    <col min="6" max="6" width="28" style="132" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="131" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="132" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" style="132" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="131" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="131"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="163" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B1" s="163"/>
       <c r="C1" s="163"/>
@@ -31507,7 +31612,7 @@
         <v>115</v>
       </c>
       <c r="C3" s="131" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -31515,370 +31620,850 @@
         <v>116</v>
       </c>
       <c r="C4" s="131" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="133"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="164" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="166"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="137" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="137" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="137" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="137" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <v>1</v>
+      </c>
+      <c r="B8" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="167">
+        <v>44504</v>
+      </c>
+      <c r="E8" s="140" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="139" t="s">
         <v>126</v>
       </c>
+      <c r="G8" s="141">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
+        <v>2</v>
+      </c>
+      <c r="B9" s="138" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="167">
+        <v>44536</v>
+      </c>
+      <c r="E9" s="140" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="139" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="141" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>3</v>
+      </c>
+      <c r="B10" s="138" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="167">
+        <v>44536</v>
+      </c>
+      <c r="E10" s="140" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="139" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="141" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>4</v>
+      </c>
+      <c r="B11" s="138" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="167">
+        <v>44536</v>
+      </c>
+      <c r="E11" s="140" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="139" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="141" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>5</v>
+      </c>
+      <c r="B12" s="138" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="167">
+        <v>44536</v>
+      </c>
+      <c r="E12" s="140" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="139" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="141" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
+        <v>6</v>
+      </c>
+      <c r="B13" s="138" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="167">
+        <v>44536</v>
+      </c>
+      <c r="E13" s="140" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="139" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="141" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <v>7</v>
+      </c>
+      <c r="B14" s="138" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="167">
+        <v>44571</v>
+      </c>
+      <c r="E14" s="140" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="139" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="141" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
+        <v>8</v>
+      </c>
+      <c r="B15" s="138" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="167">
+        <v>44755</v>
+      </c>
+      <c r="E15" s="140" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="141" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
+        <v>9</v>
+      </c>
+      <c r="B16" s="138" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="167">
+        <v>44755</v>
+      </c>
+      <c r="E16" s="140" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="141" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
+        <v>10</v>
+      </c>
+      <c r="B17" s="138" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="167">
+        <v>44755</v>
+      </c>
+      <c r="E17" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="141" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
+        <v>11</v>
+      </c>
+      <c r="B18" s="138" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="167">
+        <v>44755</v>
+      </c>
+      <c r="E18" s="140" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="141" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32">
+        <v>12</v>
+      </c>
+      <c r="B19" s="138" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="167">
+        <v>44887</v>
+      </c>
+      <c r="E19" s="140" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="141" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32">
+        <v>13</v>
+      </c>
+      <c r="B20" s="138" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="167">
+        <v>44887</v>
+      </c>
+      <c r="E20" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="141" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="32">
+        <v>14</v>
+      </c>
+      <c r="B21" s="138" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="167">
+        <v>44887</v>
+      </c>
+      <c r="E21" s="140" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="141" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32">
+        <v>15</v>
+      </c>
+      <c r="B22" s="138" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="167">
+        <v>44896</v>
+      </c>
+      <c r="E22" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="141" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32">
+        <v>16</v>
+      </c>
+      <c r="B23" s="138" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="167">
+        <v>44896</v>
+      </c>
+      <c r="E23" s="140" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="141" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="32">
+        <v>17</v>
+      </c>
+      <c r="B24" s="138" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="167">
+        <v>44896</v>
+      </c>
+      <c r="E24" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="141" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32">
+        <v>18</v>
+      </c>
+      <c r="B25" s="138" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="167">
+        <v>44896</v>
+      </c>
+      <c r="E25" s="140" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="141" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="32">
+        <v>19</v>
+      </c>
+      <c r="B26" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="142" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="167">
+        <v>44958</v>
+      </c>
+      <c r="E26" s="140" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="139" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="141" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="32">
+        <v>20</v>
+      </c>
+      <c r="B27" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="142" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="167">
+        <v>44958</v>
+      </c>
+      <c r="E27" s="140" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="139" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" s="141" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="32">
+        <v>21</v>
+      </c>
+      <c r="B28" s="138" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="167">
+        <v>45047</v>
+      </c>
+      <c r="E28" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="141" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="32">
+        <v>22</v>
+      </c>
+      <c r="B29" s="138" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="167">
+        <v>45047</v>
+      </c>
+      <c r="E29" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="141" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="131" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="131" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="131" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B8:G29">
+    <sortCondition ref="D8:D29"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:G6"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.21875" style="131" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" style="131" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" style="131" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="131" customWidth="1"/>
+    <col min="5" max="5" width="56.88671875" style="132" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="132" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="131" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="131"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="163" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="133" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="131" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="133" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="131" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="133"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="137" t="s">
+      <c r="A6" s="164" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="166"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="137" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="137" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="137" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="137" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="137" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="137" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="137" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="137" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="137" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+    </row>
+    <row r="8" spans="1:7" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
         <v>1</v>
       </c>
-      <c r="B7" s="138" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="142" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="141" t="s">
+      <c r="B8" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="140" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="139" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="141">
-        <v>45017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="D8" s="168" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="140" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="141" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
         <v>2</v>
       </c>
-      <c r="B8" s="138" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="142" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="141" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="140" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="139" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="141" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="B9" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="168">
+        <v>44297</v>
+      </c>
+      <c r="E9" s="140" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="139" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="141" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
         <v>3</v>
       </c>
-      <c r="B9" s="138" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="142" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="141" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="140" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="139" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" s="141" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="B10" s="138" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="168" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="140" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="139" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="141" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
         <v>4</v>
       </c>
-      <c r="B10" s="138" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="142" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="141" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="140" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="139" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="B11" s="138" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="168" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="140" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="139" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="141" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
         <v>5</v>
       </c>
-      <c r="B11" s="138" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="142" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="141" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="140" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="139" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="141" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="B12" s="138" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="168" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="140" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="139" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="141" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
         <v>6</v>
       </c>
-      <c r="B12" s="138" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="142" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="141" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="140" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" s="139" t="s">
-        <v>146</v>
-      </c>
-      <c r="G12" s="141" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="B13" s="138"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="141"/>
+    </row>
+    <row r="14" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
         <v>7</v>
       </c>
-      <c r="B13" s="138" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="142" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="141" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="140" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="139" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="141" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="B14" s="138"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="141"/>
+    </row>
+    <row r="15" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
         <v>8</v>
       </c>
-      <c r="B14" s="138" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="142" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="141" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="139" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="141" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
-        <v>9</v>
-      </c>
-      <c r="B15" s="138" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="142" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="141" t="s">
-        <v>158</v>
-      </c>
+      <c r="B15" s="138"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="168"/>
       <c r="E15" s="140"/>
       <c r="F15" s="139"/>
       <c r="G15" s="141"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="138"/>
       <c r="C16" s="142"/>
-      <c r="D16" s="141"/>
+      <c r="D16" s="168"/>
       <c r="E16" s="140"/>
       <c r="F16" s="139"/>
       <c r="G16" s="141"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="138"/>
       <c r="C17" s="142"/>
-      <c r="D17" s="141"/>
+      <c r="D17" s="168"/>
       <c r="E17" s="140"/>
       <c r="F17" s="139"/>
       <c r="G17" s="141"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
-        <v>12</v>
-      </c>
-      <c r="B18" s="138"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="141"/>
-    </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
-        <v>13</v>
-      </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="141"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
-        <v>14</v>
-      </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="141"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
-        <v>15</v>
-      </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="141"/>
+      <c r="B19" s="131" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
-        <v>16</v>
-      </c>
-      <c r="B22" s="138"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="141"/>
+      <c r="B22" s="131" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
-        <v>17</v>
-      </c>
-      <c r="B23" s="138"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="141"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
-        <v>18</v>
-      </c>
-      <c r="B24" s="138"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="141"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="32">
-        <v>19</v>
-      </c>
-      <c r="B25" s="138"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="141"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
-        <v>20</v>
-      </c>
-      <c r="B26" s="138"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="141"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="131" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="131" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="131" t="s">
-        <v>120</v>
+      <c r="B23" s="131" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
